--- a/Excel/wdr_par_c/wdr/msg/uid00100813.xlsx
+++ b/Excel/wdr_par_c/wdr/msg/uid00100813.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>OFFSET</t>
   </si>
@@ -20,7 +20,7 @@
     <t>ORIGINAL</t>
   </si>
   <si>
-    <t>TRADUÇÃO</t>
+    <t>TRADUCCIÓN</t>
   </si>
   <si>
     <t>English please.\r\nEnglish please.</t>
@@ -29,88 +29,178 @@
     <t>Received outfit &lt;Color:8&gt;Dragon Tattoo&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Traje recebido &lt;Color:8&gt;Tatuagem do Dragão&lt;Color:Default&gt;.
+\n</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Toughness Emperor&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Toughness Emperor&lt;Color:Default&gt;.
+\n</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Tauriner ++&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Tauriner ++&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Staminan Royale&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Staminan Royale&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Modified Model Gun&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Modified Model Gun&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Gold Plate&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Prato de Ouro&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received outfit &lt;Color:8&gt;Prison Escapee&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Traje recebido &lt;Color:8&gt;Prisioneiro Fugitivo&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Extra Balanced Motor&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Extra Balanced Motor&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Extra Slim Tires&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Extra Slim Tires&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Boost Gears&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Boost Gears&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Speed Frame Plus&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Speed Frame Plus&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Stone of Enduring&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Stone of Enduring&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received outfit &lt;Color:8&gt;Black Suit&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Traje recebido &lt;Color:8&gt;Terno Preto&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Toughness Infinity&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Toughness Infinity&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Tauriner Maximum&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Tauriner Maximum&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Staminan Spark&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Staminan Spark&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Marlin Cannon&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Canhão de Peixe Espada&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Platinum Plate&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Prato de Platina&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received outfit &lt;Color:8&gt;Snakeskin Jacket&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Traje recebido &lt;Color:8&gt;Casaco de Pele de Cobra&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Killer Bee&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Killer Bee&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Godspeed Motor&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Godspeed Motor&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Super Slim Tires&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Super Slim Tires&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Godspeed Gears Plus&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Godspeed Gears Plus&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;New Bumper Plate&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;New Bumper Plate&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Sacrifice Stone&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Pedra do Sacrifício&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Calming Towel&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Calming Towel&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Magnetic Necklace&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Colar Magnético&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Dojima Family Amulet&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Amuleto da Família Dojima&lt;Color:Default&gt;.
+\n</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;War God Talisman&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
+    <t>Recebido &lt;Color:8&gt;Talismã do Deus da Guerra&lt;Color:Default&gt;.</t>
   </si>
   <si>
     <t>English please.</t>
@@ -201,7 +291,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -209,10 +299,10 @@
         <v>7313</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -220,10 +310,10 @@
         <v>7366</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -231,10 +321,10 @@
         <v>7413</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -242,10 +332,10 @@
         <v>7464</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -253,10 +343,10 @@
         <v>7518</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -264,10 +354,10 @@
         <v>7565</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -275,10 +365,10 @@
         <v>7621</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -286,10 +376,10 @@
         <v>7677</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -297,10 +387,10 @@
         <v>7729</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -308,10 +398,10 @@
         <v>7776</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -319,10 +409,10 @@
         <v>7828</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -330,10 +420,10 @@
         <v>7882</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -341,10 +431,10 @@
         <v>7934</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -352,10 +442,10 @@
         <v>7988</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -363,10 +453,10 @@
         <v>8040</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -374,10 +464,10 @@
         <v>8090</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -385,10 +475,10 @@
         <v>8139</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -396,10 +486,10 @@
         <v>8190</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -407,10 +497,10 @@
         <v>8248</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -418,10 +508,10 @@
         <v>8294</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -429,10 +519,10 @@
         <v>8344</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
@@ -440,10 +530,10 @@
         <v>8396</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -451,10 +541,10 @@
         <v>8451</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
@@ -462,10 +552,10 @@
         <v>8503</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
@@ -473,10 +563,10 @@
         <v>8555</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -484,10 +574,10 @@
         <v>8605</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -495,10 +585,10 @@
         <v>8659</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
@@ -506,10 +596,10 @@
         <v>8716</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -528,10 +618,10 @@
         <v>8802</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
@@ -539,10 +629,10 @@
         <v>8818</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
@@ -550,10 +640,10 @@
         <v>8834</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36">
@@ -561,10 +651,10 @@
         <v>8860</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37">
@@ -572,10 +662,10 @@
         <v>8879</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
